--- a/results/mp/deberta/corona/confidence/126/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-0.1/avg_0.002_scores.xlsx
@@ -151,10 +151,10 @@
     <t>funny</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
   </si>
   <si>
     <t>hope</t>
@@ -1492,25 +1492,25 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.6753246753246753</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L25">
         <v>156</v>
       </c>
       <c r="M25">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="N25">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1726,25 +1726,25 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.5548780487804879</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L34">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1752,13 +1752,13 @@
         <v>46</v>
       </c>
       <c r="K35">
-        <v>0.5428571428571428</v>
+        <v>0.5352941176470588</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="10:17">
